--- a/Jogos_do_Dia/2023-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1428,13 +1428,13 @@
         <v>173</v>
       </c>
       <c r="F3">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G3">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -1449,10 +1449,10 @@
         <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N3">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
         <v>1.36</v>
@@ -1476,10 +1476,10 @@
         <v>1.67</v>
       </c>
       <c r="V3">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X3">
         <v>1.63</v>
@@ -1532,13 +1532,13 @@
         <v>174</v>
       </c>
       <c r="F4">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="G4">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="H4">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="I4">
         <v>1.01</v>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1580,7 +1580,7 @@
         <v>1.9</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>175</v>
       </c>
       <c r="F5">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="G5">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I5">
         <v>1.05</v>
@@ -1657,10 +1657,10 @@
         <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -1684,10 +1684,10 @@
         <v>1.52</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>176</v>
       </c>
       <c r="F6">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="G6">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1764,7 +1764,7 @@
         <v>2.35</v>
       </c>
       <c r="N6">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O6">
         <v>1.53</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1844,13 +1844,13 @@
         <v>177</v>
       </c>
       <c r="F7">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="G7">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="H7">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="I7">
         <v>1.12</v>
@@ -1859,10 +1859,10 @@
         <v>5.5</v>
       </c>
       <c r="K7">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="L7">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
         <v>2.6</v>
@@ -1892,10 +1892,10 @@
         <v>1.25</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1948,13 +1948,13 @@
         <v>178</v>
       </c>
       <c r="F8">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G8">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H8">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="I8">
         <v>1.06</v>
@@ -1969,10 +1969,10 @@
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="N8">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -1996,10 +1996,10 @@
         <v>1.11</v>
       </c>
       <c r="V8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W8">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
         <v>1.49</v>
@@ -2052,13 +2052,13 @@
         <v>179</v>
       </c>
       <c r="F9">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
       <c r="G9">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
       <c r="H9">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -2073,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O9">
         <v>1.45</v>
@@ -2100,10 +2100,10 @@
         <v>1.6</v>
       </c>
       <c r="V9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X9">
         <v>1.7</v>
@@ -2156,13 +2156,13 @@
         <v>180</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G10">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="H10">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -2177,7 +2177,7 @@
         <v>3.14</v>
       </c>
       <c r="M10">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
         <v>1.7</v>
@@ -2204,10 +2204,10 @@
         <v>1.36</v>
       </c>
       <c r="V10">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="W10">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X10">
         <v>1.46</v>
@@ -2308,10 +2308,10 @@
         <v>1.73</v>
       </c>
       <c r="V11">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="W11">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X11">
         <v>1.88</v>
@@ -2364,13 +2364,13 @@
         <v>182</v>
       </c>
       <c r="F12">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="G12">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="H12">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -2385,10 +2385,10 @@
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
         <v>1.44</v>
@@ -2412,10 +2412,10 @@
         <v>1.46</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W12">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X12">
         <v>1.39</v>
@@ -2468,13 +2468,13 @@
         <v>183</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G13">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H13">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="I13">
         <v>1.03</v>
@@ -2489,10 +2489,10 @@
         <v>3.8</v>
       </c>
       <c r="M13">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="N13">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2516,10 +2516,10 @@
         <v>2.44</v>
       </c>
       <c r="V13">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W13">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
         <v>1.78</v>
@@ -2572,13 +2572,13 @@
         <v>184</v>
       </c>
       <c r="F14">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="G14">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="H14">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="I14">
         <v>1.08</v>
@@ -2593,10 +2593,10 @@
         <v>2.75</v>
       </c>
       <c r="M14">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
         <v>1.44</v>
@@ -2620,10 +2620,10 @@
         <v>1.66</v>
       </c>
       <c r="V14">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W14">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X14">
         <v>1.47</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>185</v>
       </c>
       <c r="F15">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="G15">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="H15">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2697,10 +2697,10 @@
         <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2724,10 +2724,10 @@
         <v>1.42</v>
       </c>
       <c r="V15">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="W15">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X15">
         <v>1.35</v>
@@ -2780,13 +2780,13 @@
         <v>186</v>
       </c>
       <c r="F16">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="G16">
-        <v>4.5</v>
+        <v>4.34</v>
       </c>
       <c r="H16">
-        <v>6.1</v>
+        <v>4.74</v>
       </c>
       <c r="I16">
         <v>1.03</v>
@@ -2801,10 +2801,10 @@
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="N16">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O16">
         <v>1.3</v>
@@ -2828,10 +2828,10 @@
         <v>2.15</v>
       </c>
       <c r="V16">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="W16">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="X16">
         <v>2.08</v>
@@ -2932,10 +2932,10 @@
         <v>1.62</v>
       </c>
       <c r="V17">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X17">
         <v>1.86</v>
@@ -2991,10 +2991,10 @@
         <v>1.88</v>
       </c>
       <c r="G18">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="H18">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18">
         <v>1.04</v>
@@ -3009,10 +3009,10 @@
         <v>4</v>
       </c>
       <c r="M18">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O18">
         <v>1.33</v>
@@ -3036,10 +3036,10 @@
         <v>1.75</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1.9</v>
@@ -3092,13 +3092,13 @@
         <v>189</v>
       </c>
       <c r="F19">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G19">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="I19">
         <v>1.02</v>
@@ -3116,7 +3116,7 @@
         <v>1.57</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
         <v>1.29</v>
@@ -3140,10 +3140,10 @@
         <v>2.55</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -3196,13 +3196,13 @@
         <v>190</v>
       </c>
       <c r="F20">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G20">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H20">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I20">
         <v>1.06</v>
@@ -3217,10 +3217,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="N20">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -3244,10 +3244,10 @@
         <v>1.85</v>
       </c>
       <c r="V20">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W20">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X20">
         <v>1.84</v>
@@ -3300,13 +3300,13 @@
         <v>191</v>
       </c>
       <c r="F21">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H21">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="I21">
         <v>1.06</v>
@@ -3321,10 +3321,10 @@
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N21">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>1.4</v>
@@ -3348,10 +3348,10 @@
         <v>1.36</v>
       </c>
       <c r="V21">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="W21">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>1.58</v>
@@ -3404,13 +3404,13 @@
         <v>192</v>
       </c>
       <c r="F22">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="G22">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="I22">
         <v>1.05</v>
@@ -3425,10 +3425,10 @@
         <v>3.63</v>
       </c>
       <c r="M22">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O22">
         <v>1.38</v>
@@ -3452,10 +3452,10 @@
         <v>1.35</v>
       </c>
       <c r="V22">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X22">
         <v>1.71</v>
@@ -3508,10 +3508,10 @@
         <v>193</v>
       </c>
       <c r="F23">
-        <v>3.15</v>
+        <v>3.46</v>
       </c>
       <c r="G23">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="H23">
         <v>2.09</v>
@@ -3529,10 +3529,10 @@
         <v>2.92</v>
       </c>
       <c r="M23">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O23">
         <v>1.44</v>
@@ -3556,10 +3556,10 @@
         <v>1.3</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X23">
         <v>1.03</v>
@@ -3612,13 +3612,13 @@
         <v>194</v>
       </c>
       <c r="F24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I24">
         <v>1.01</v>
@@ -3633,10 +3633,10 @@
         <v>3.64</v>
       </c>
       <c r="M24">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O24">
         <v>1.36</v>
@@ -3660,10 +3660,10 @@
         <v>1.61</v>
       </c>
       <c r="V24">
+        <v>1.2</v>
+      </c>
+      <c r="W24">
         <v>1.22</v>
-      </c>
-      <c r="W24">
-        <v>1.25</v>
       </c>
       <c r="X24">
         <v>1.44</v>
@@ -3716,13 +3716,13 @@
         <v>195</v>
       </c>
       <c r="F25">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="G25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H25">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="I25">
         <v>1.03</v>
@@ -3737,10 +3737,10 @@
         <v>3.95</v>
       </c>
       <c r="M25">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N25">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -3764,10 +3764,10 @@
         <v>1.19</v>
       </c>
       <c r="V25">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="W25">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="X25">
         <v>1.61</v>
@@ -3820,13 +3820,13 @@
         <v>196</v>
       </c>
       <c r="F26">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G26">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="H26">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="I26">
         <v>1.05</v>
@@ -3841,10 +3841,10 @@
         <v>3.5</v>
       </c>
       <c r="M26">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N26">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O26">
         <v>1.36</v>
@@ -3868,10 +3868,10 @@
         <v>1.67</v>
       </c>
       <c r="V26">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>1.51</v>
@@ -3924,10 +3924,10 @@
         <v>197</v>
       </c>
       <c r="F27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G27">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H27">
         <v>2.35</v>
@@ -3939,16 +3939,16 @@
         <v>6.75</v>
       </c>
       <c r="K27">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="M27">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="N27">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="O27">
         <v>1.62</v>
@@ -3972,10 +3972,10 @@
         <v>1.3</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W27">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="X27">
         <v>1.17</v>
@@ -4028,13 +4028,13 @@
         <v>198</v>
       </c>
       <c r="F28">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="G28">
         <v>3.2</v>
       </c>
       <c r="H28">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I28">
         <v>1.09</v>
@@ -4049,10 +4049,10 @@
         <v>2.8</v>
       </c>
       <c r="M28">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O28">
         <v>1.5</v>
@@ -4076,10 +4076,10 @@
         <v>1.41</v>
       </c>
       <c r="V28">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W28">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X28">
         <v>1.47</v>
@@ -4132,13 +4132,13 @@
         <v>199</v>
       </c>
       <c r="F29">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="G29">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="H29">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="I29">
         <v>1.02</v>
@@ -4153,10 +4153,10 @@
         <v>5.05</v>
       </c>
       <c r="M29">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="N29">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="O29">
         <v>1.25</v>
@@ -4180,10 +4180,10 @@
         <v>1.73</v>
       </c>
       <c r="V29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X29">
         <v>2.34</v>
@@ -4204,7 +4204,7 @@
         <v>2.77</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE29">
         <v>1.22</v>
@@ -4236,13 +4236,13 @@
         <v>200</v>
       </c>
       <c r="F30">
-        <v>6.2</v>
+        <v>4.94</v>
       </c>
       <c r="G30">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="H30">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="I30">
         <v>1.08</v>
@@ -4257,10 +4257,10 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O30">
         <v>1.44</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
         <v>1.33</v>
@@ -4340,13 +4340,13 @@
         <v>201</v>
       </c>
       <c r="F31">
-        <v>4.35</v>
+        <v>4.04</v>
       </c>
       <c r="G31">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="I31">
         <v>1.03</v>
@@ -4361,10 +4361,10 @@
         <v>4.9</v>
       </c>
       <c r="M31">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N31">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
         <v>1.28</v>
@@ -4388,10 +4388,10 @@
         <v>1.28</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X31">
         <v>1.64</v>
@@ -4444,13 +4444,13 @@
         <v>202</v>
       </c>
       <c r="F32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G32">
-        <v>3.7</v>
+        <v>3.58</v>
       </c>
       <c r="H32">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="I32">
         <v>1.04</v>
@@ -4465,10 +4465,10 @@
         <v>3.32</v>
       </c>
       <c r="M32">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
         <v>1.4</v>
@@ -4492,10 +4492,10 @@
         <v>1.26</v>
       </c>
       <c r="V32">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="W32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>1.58</v>
@@ -4548,13 +4548,13 @@
         <v>203</v>
       </c>
       <c r="F33">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="G33">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="H33">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X33">
         <v>0.96</v>
@@ -4652,13 +4652,13 @@
         <v>204</v>
       </c>
       <c r="F34">
-        <v>7.25</v>
+        <v>7.4</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H34">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4700,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W34">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="X34">
         <v>1.22</v>
@@ -4756,13 +4756,13 @@
         <v>205</v>
       </c>
       <c r="F35">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="G35">
-        <v>4.2</v>
+        <v>4.04</v>
       </c>
       <c r="H35">
-        <v>6.25</v>
+        <v>5.4</v>
       </c>
       <c r="I35">
         <v>1.04</v>
@@ -4780,7 +4780,7 @@
         <v>1.8</v>
       </c>
       <c r="N35">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="O35">
         <v>1.33</v>
@@ -4804,10 +4804,10 @@
         <v>2.65</v>
       </c>
       <c r="V35">
+        <v>1.45</v>
+      </c>
+      <c r="W35">
         <v>1.6</v>
-      </c>
-      <c r="W35">
-        <v>1.44</v>
       </c>
       <c r="X35">
         <v>2.19</v>
@@ -4860,25 +4860,25 @@
         <v>206</v>
       </c>
       <c r="F36">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
         <v>1.85</v>
@@ -4887,31 +4887,31 @@
         <v>1.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q36">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="V36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X36">
         <v>1.74</v>
@@ -4923,28 +4923,28 @@
         <v>3.44</v>
       </c>
       <c r="AA36">
-        <v>3.66</v>
+        <v>3.84</v>
       </c>
       <c r="AB36">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC36">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -4964,13 +4964,13 @@
         <v>207</v>
       </c>
       <c r="F37">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="G37">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="H37">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="I37">
         <v>1.07</v>
@@ -4985,10 +4985,10 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="N37">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="O37">
         <v>1.4</v>
@@ -5012,10 +5012,10 @@
         <v>1.22</v>
       </c>
       <c r="V37">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="W37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X37">
         <v>1.27</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>208</v>
       </c>
       <c r="F38">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="G38">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="H38">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="I38">
         <v>1.08</v>
@@ -5092,7 +5092,7 @@
         <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
         <v>1.5</v>
@@ -5116,10 +5116,10 @@
         <v>1.72</v>
       </c>
       <c r="V38">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X38">
         <v>1.52</v>
@@ -5172,13 +5172,13 @@
         <v>209</v>
       </c>
       <c r="F39">
-        <v>4.1</v>
+        <v>4.24</v>
       </c>
       <c r="G39">
-        <v>3.9</v>
+        <v>4.06</v>
       </c>
       <c r="H39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="I39">
         <v>1.03</v>
@@ -5193,10 +5193,10 @@
         <v>4.2</v>
       </c>
       <c r="M39">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="N39">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
         <v>1.33</v>
@@ -5220,10 +5220,10 @@
         <v>1.21</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W39">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="X39">
         <v>1.54</v>
@@ -5276,10 +5276,10 @@
         <v>210</v>
       </c>
       <c r="F40">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G40">
-        <v>3.95</v>
+        <v>4.14</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -5297,10 +5297,10 @@
         <v>3.1</v>
       </c>
       <c r="M40">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
         <v>1.4</v>
@@ -5324,10 +5324,10 @@
         <v>2.4</v>
       </c>
       <c r="V40">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="W40">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X40">
         <v>1.78</v>
@@ -5380,13 +5380,13 @@
         <v>211</v>
       </c>
       <c r="F41">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="G41">
+        <v>3.56</v>
+      </c>
+      <c r="H41">
         <v>3.2</v>
-      </c>
-      <c r="H41">
-        <v>3.25</v>
       </c>
       <c r="I41">
         <v>1.05</v>
@@ -5401,10 +5401,10 @@
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N41">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
         <v>1.4</v>
@@ -5428,10 +5428,10 @@
         <v>1.44</v>
       </c>
       <c r="V41">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="W41">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="X41">
         <v>1.51</v>
@@ -5532,10 +5532,10 @@
         <v>1.62</v>
       </c>
       <c r="V42">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="W42">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X42">
         <v>1.87</v>
@@ -5556,7 +5556,7 @@
         <v>2.65</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE42">
         <v>1.52</v>
@@ -5568,7 +5568,7 @@
         <v>2.3</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -5588,13 +5588,13 @@
         <v>213</v>
       </c>
       <c r="F43">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="G43">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="H43">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5609,10 +5609,10 @@
         <v>3.3</v>
       </c>
       <c r="M43">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N43">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5636,10 +5636,10 @@
         <v>1.57</v>
       </c>
       <c r="V43">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>1.38</v>
@@ -5692,13 +5692,13 @@
         <v>214</v>
       </c>
       <c r="F44">
-        <v>2.94</v>
+        <v>3.03</v>
       </c>
       <c r="G44">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="H44">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="I44">
         <v>1.06</v>
@@ -5713,10 +5713,10 @@
         <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
         <v>1.36</v>
@@ -5740,10 +5740,10 @@
         <v>1.38</v>
       </c>
       <c r="V44">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W44">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="X44">
         <v>1.26</v>
@@ -5796,13 +5796,13 @@
         <v>215</v>
       </c>
       <c r="F45">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="G45">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="H45">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="I45">
         <v>1.07</v>
@@ -5817,10 +5817,10 @@
         <v>3.22</v>
       </c>
       <c r="M45">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O45">
         <v>1.44</v>
@@ -5844,10 +5844,10 @@
         <v>1.4</v>
       </c>
       <c r="V45">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W45">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="X45">
         <v>1.82</v>
@@ -5900,13 +5900,13 @@
         <v>216</v>
       </c>
       <c r="F46">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G46">
         <v>4.1</v>
       </c>
       <c r="H46">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I46">
         <v>1.01</v>
@@ -5921,10 +5921,10 @@
         <v>3.72</v>
       </c>
       <c r="M46">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="N46">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
         <v>1.33</v>
@@ -5948,7 +5948,7 @@
         <v>2.4</v>
       </c>
       <c r="V46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W46">
         <v>1</v>
@@ -6004,13 +6004,13 @@
         <v>217</v>
       </c>
       <c r="F47">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>4</v>
       </c>
       <c r="H47">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I47">
         <v>1.05</v>
@@ -6025,10 +6025,10 @@
         <v>3.4</v>
       </c>
       <c r="M47">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O47">
         <v>1.36</v>
@@ -6052,10 +6052,10 @@
         <v>1.16</v>
       </c>
       <c r="V47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X47">
         <v>1.32</v>
@@ -6108,13 +6108,13 @@
         <v>218</v>
       </c>
       <c r="F48">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="G48">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H48">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>1.03</v>
@@ -6129,10 +6129,10 @@
         <v>4.85</v>
       </c>
       <c r="M48">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="N48">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
         <v>1.29</v>
@@ -6156,10 +6156,10 @@
         <v>2.35</v>
       </c>
       <c r="V48">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W48">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>1.93</v>
@@ -6212,13 +6212,13 @@
         <v>219</v>
       </c>
       <c r="F49">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="G49">
-        <v>4.35</v>
+        <v>4.74</v>
       </c>
       <c r="H49">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="I49">
         <v>1.05</v>
@@ -6233,10 +6233,10 @@
         <v>4</v>
       </c>
       <c r="M49">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N49">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O49">
         <v>1.33</v>
@@ -6260,10 +6260,10 @@
         <v>2.57</v>
       </c>
       <c r="V49">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W49">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X49">
         <v>1.58</v>
@@ -6316,13 +6316,13 @@
         <v>220</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="G50">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="I50">
         <v>1.04</v>
@@ -6337,10 +6337,10 @@
         <v>3.5</v>
       </c>
       <c r="M50">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N50">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O50">
         <v>1.36</v>
@@ -6364,10 +6364,10 @@
         <v>1.05</v>
       </c>
       <c r="V50">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="W50">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="X50">
         <v>1.22</v>
@@ -6420,13 +6420,13 @@
         <v>221</v>
       </c>
       <c r="F51">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="G51">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H51">
-        <v>3.2</v>
+        <v>3.72</v>
       </c>
       <c r="I51">
         <v>1.04</v>
@@ -6441,10 +6441,10 @@
         <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="N51">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
         <v>1.4</v>
@@ -6468,10 +6468,10 @@
         <v>1.6</v>
       </c>
       <c r="V51">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W51">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>1.44</v>
@@ -6524,13 +6524,13 @@
         <v>222</v>
       </c>
       <c r="F52">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G52">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I52">
         <v>1.06</v>
@@ -6545,10 +6545,10 @@
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="N52">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
         <v>1.4</v>
@@ -6572,10 +6572,10 @@
         <v>2.3</v>
       </c>
       <c r="V52">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="W52">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="X52">
         <v>1.61</v>
@@ -6628,13 +6628,13 @@
         <v>223</v>
       </c>
       <c r="F53">
-        <v>3.1</v>
+        <v>3.74</v>
       </c>
       <c r="G53">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="H53">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="I53">
         <v>1.05</v>
@@ -6649,10 +6649,10 @@
         <v>3.85</v>
       </c>
       <c r="M53">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O53">
         <v>1.36</v>
@@ -6676,10 +6676,10 @@
         <v>1.3</v>
       </c>
       <c r="V53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="W53">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X53">
         <v>1.69</v>
@@ -6732,13 +6732,13 @@
         <v>224</v>
       </c>
       <c r="F54">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G54">
-        <v>3.6</v>
+        <v>4.24</v>
       </c>
       <c r="H54">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="I54">
         <v>1.04</v>
@@ -6756,7 +6756,7 @@
         <v>1.73</v>
       </c>
       <c r="N54">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="O54">
         <v>1.35</v>
@@ -6780,10 +6780,10 @@
         <v>2.3</v>
       </c>
       <c r="V54">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="X54">
         <v>1.86</v>
@@ -6836,13 +6836,13 @@
         <v>225</v>
       </c>
       <c r="F55">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="G55">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H55">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6857,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="N55">
-        <v>2.11</v>
+        <v>2.32</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>1.35</v>
       </c>
       <c r="G56">
-        <v>4.8</v>
+        <v>4.54</v>
       </c>
       <c r="H56">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="I56">
         <v>1.1</v>
@@ -6961,10 +6961,10 @@
         <v>2.8</v>
       </c>
       <c r="M56">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O56">
         <v>1.49</v>
@@ -6988,10 +6988,10 @@
         <v>2.8</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W56">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="X56">
         <v>1.83</v>
@@ -7044,58 +7044,58 @@
         <v>227</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W57">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X57">
         <v>1.46</v>
@@ -7107,28 +7107,28 @@
         <v>2.56</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -7148,13 +7148,13 @@
         <v>228</v>
       </c>
       <c r="F58">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G58">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H58">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I58">
         <v>1.08</v>
@@ -7169,7 +7169,7 @@
         <v>2.6</v>
       </c>
       <c r="M58">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
         <v>1.53</v>
@@ -7196,10 +7196,10 @@
         <v>2.66</v>
       </c>
       <c r="V58">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="W58">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="X58">
         <v>1.67</v>
@@ -7252,13 +7252,13 @@
         <v>229</v>
       </c>
       <c r="F59">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="G59">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H59">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I59">
         <v>1.11</v>
@@ -7267,13 +7267,13 @@
         <v>5.5</v>
       </c>
       <c r="K59">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="M59">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N59">
         <v>1.43</v>
@@ -7300,10 +7300,10 @@
         <v>1.7</v>
       </c>
       <c r="V59">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="W59">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="X59">
         <v>1.8</v>
@@ -7356,13 +7356,13 @@
         <v>230</v>
       </c>
       <c r="F60">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="G60">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I60">
         <v>1.1</v>
@@ -7377,10 +7377,10 @@
         <v>1.94</v>
       </c>
       <c r="M60">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N60">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O60">
         <v>1.53</v>
@@ -7404,10 +7404,10 @@
         <v>1.55</v>
       </c>
       <c r="V60">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="W60">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X60">
         <v>1.97</v>
@@ -7460,13 +7460,13 @@
         <v>231</v>
       </c>
       <c r="F61">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G61">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H61">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="I61">
         <v>1.05</v>
@@ -7481,10 +7481,10 @@
         <v>2.68</v>
       </c>
       <c r="M61">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="N61">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O61">
         <v>1.5</v>
@@ -7508,10 +7508,10 @@
         <v>1.36</v>
       </c>
       <c r="V61">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W61">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="X61">
         <v>1.66</v>
@@ -7564,13 +7564,13 @@
         <v>232</v>
       </c>
       <c r="F62">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="G62">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="I62">
         <v>1.03</v>
@@ -7585,10 +7585,10 @@
         <v>4</v>
       </c>
       <c r="M62">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="N62">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
         <v>1.3</v>
@@ -7597,10 +7597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q62">
+        <v>1.91</v>
+      </c>
+      <c r="R62">
         <v>1.8</v>
-      </c>
-      <c r="R62">
-        <v>1.91</v>
       </c>
       <c r="S62">
         <v>1.1</v>
@@ -7612,10 +7612,10 @@
         <v>2.3</v>
       </c>
       <c r="V62">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="W62">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X62">
         <v>1.89</v>
@@ -7627,28 +7627,28 @@
         <v>3.31</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -7668,13 +7668,13 @@
         <v>233</v>
       </c>
       <c r="F63">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="G63">
+        <v>3.8</v>
+      </c>
+      <c r="H63">
         <v>3.4</v>
-      </c>
-      <c r="H63">
-        <v>4.1</v>
       </c>
       <c r="I63">
         <v>1.03</v>
@@ -7689,10 +7689,10 @@
         <v>4.75</v>
       </c>
       <c r="M63">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O63">
         <v>1.3</v>
@@ -7716,10 +7716,10 @@
         <v>1.88</v>
       </c>
       <c r="V63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="W63">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X63">
         <v>2.03</v>
@@ -7772,13 +7772,13 @@
         <v>234</v>
       </c>
       <c r="F64">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G64">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="H64">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="I64">
         <v>1.04</v>
@@ -7793,10 +7793,10 @@
         <v>4</v>
       </c>
       <c r="M64">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="N64">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="O64">
         <v>1.33</v>
@@ -7820,10 +7820,10 @@
         <v>1.3</v>
       </c>
       <c r="V64">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X64">
         <v>1.54</v>
@@ -7876,13 +7876,13 @@
         <v>235</v>
       </c>
       <c r="F65">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="G65">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="I65">
         <v>1.1</v>
@@ -7891,16 +7891,16 @@
         <v>6.25</v>
       </c>
       <c r="K65">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
         <v>2.5</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N65">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="O65">
         <v>1.53</v>
@@ -7924,10 +7924,10 @@
         <v>1.37</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="X65">
         <v>1.23</v>
@@ -7971,7 +7971,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>134</v>
@@ -7980,13 +7980,13 @@
         <v>236</v>
       </c>
       <c r="F66">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H66">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I66">
         <v>1.07</v>
@@ -8001,10 +8001,10 @@
         <v>3</v>
       </c>
       <c r="M66">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O66">
         <v>1.4</v>
@@ -8028,10 +8028,10 @@
         <v>1.85</v>
       </c>
       <c r="V66">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="W66">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X66">
         <v>1.89</v>
@@ -8084,13 +8084,13 @@
         <v>237</v>
       </c>
       <c r="F67">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G67">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H67">
-        <v>3.2</v>
+        <v>2.81</v>
       </c>
       <c r="I67">
         <v>1.06</v>
@@ -8105,10 +8105,10 @@
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O67">
         <v>1.4</v>
@@ -8132,10 +8132,10 @@
         <v>1.56</v>
       </c>
       <c r="V67">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W67">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X67">
         <v>1.79</v>
@@ -8147,13 +8147,13 @@
         <v>3.28</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD67">
         <v>1.2</v>
@@ -8188,13 +8188,13 @@
         <v>238</v>
       </c>
       <c r="F68">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G68">
-        <v>6.75</v>
+        <v>6.65</v>
       </c>
       <c r="H68">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="I68">
         <v>1.01</v>
@@ -8236,10 +8236,10 @@
         <v>4.33</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X68">
         <v>2.78</v>
@@ -8292,13 +8292,13 @@
         <v>239</v>
       </c>
       <c r="F69">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="G69">
-        <v>4.85</v>
+        <v>5.35</v>
       </c>
       <c r="H69">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="I69">
         <v>1.03</v>
@@ -8313,10 +8313,10 @@
         <v>4</v>
       </c>
       <c r="M69">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="N69">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="O69">
         <v>1.3</v>
@@ -8340,10 +8340,10 @@
         <v>4</v>
       </c>
       <c r="V69">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="W69">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X69">
         <v>2.1</v>
@@ -8396,13 +8396,13 @@
         <v>240</v>
       </c>
       <c r="F70">
-        <v>7.35</v>
+        <v>7.2</v>
       </c>
       <c r="G70">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="H70">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="I70">
         <v>1.04</v>
@@ -8420,7 +8420,7 @@
         <v>1.67</v>
       </c>
       <c r="N70">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>1.3</v>
@@ -8444,10 +8444,10 @@
         <v>1.06</v>
       </c>
       <c r="V70">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W70">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="X70">
         <v>1.79</v>
@@ -8500,13 +8500,13 @@
         <v>241</v>
       </c>
       <c r="F71">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G71">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="H71">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -8548,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="X71">
         <v>1.71</v>
@@ -8604,13 +8604,13 @@
         <v>242</v>
       </c>
       <c r="F72">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="I72">
         <v>1.04</v>
@@ -8625,10 +8625,10 @@
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="N72">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="O72">
         <v>1.36</v>
@@ -8652,10 +8652,10 @@
         <v>2.35</v>
       </c>
       <c r="V72">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="W72">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X72">
         <v>1.8</v>
@@ -8708,37 +8708,37 @@
         <v>243</v>
       </c>
       <c r="F73">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="G73">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H73">
         <v>7.5</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N73">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -8747,19 +8747,19 @@
         <v>1.67</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V73">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="W73">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="X73">
         <v>1.92</v>
@@ -8771,28 +8771,28 @@
         <v>3.1</v>
       </c>
       <c r="AA73">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AB73">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AC73">
-        <v>5.05</v>
+        <v>5.25</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -8812,13 +8812,13 @@
         <v>244</v>
       </c>
       <c r="F74">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G74">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H74">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -8833,10 +8833,10 @@
         <v>3.1</v>
       </c>
       <c r="M74">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="N74">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O74">
         <v>1.44</v>
@@ -8860,10 +8860,10 @@
         <v>1.27</v>
       </c>
       <c r="V74">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X74">
         <v>1.72</v>
@@ -8916,13 +8916,13 @@
         <v>245</v>
       </c>
       <c r="F75">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G75">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I75">
         <v>1.01</v>
@@ -8940,7 +8940,7 @@
         <v>1.46</v>
       </c>
       <c r="N75">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="O75">
         <v>1.25</v>
@@ -8964,10 +8964,10 @@
         <v>3.2</v>
       </c>
       <c r="V75">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W75">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X75">
         <v>1.91</v>
@@ -9020,13 +9020,13 @@
         <v>246</v>
       </c>
       <c r="F76">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G76">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H76">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I76">
         <v>1.05</v>
@@ -9041,10 +9041,10 @@
         <v>3.9</v>
       </c>
       <c r="M76">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="N76">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="O76">
         <v>1.36</v>
@@ -9068,10 +9068,10 @@
         <v>2</v>
       </c>
       <c r="V76">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
         <v>1.84</v>
@@ -9124,13 +9124,13 @@
         <v>247</v>
       </c>
       <c r="F77">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="G77">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H77">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -9145,10 +9145,10 @@
         <v>3.75</v>
       </c>
       <c r="M77">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="N77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O77">
         <v>1.33</v>
@@ -9172,10 +9172,10 @@
         <v>1.57</v>
       </c>
       <c r="V77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X77">
         <v>1.9</v>
@@ -9228,13 +9228,13 @@
         <v>248</v>
       </c>
       <c r="F78">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G78">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H78">
-        <v>5.1</v>
+        <v>4.35</v>
       </c>
       <c r="I78">
         <v>1.03</v>
@@ -9249,10 +9249,10 @@
         <v>3.95</v>
       </c>
       <c r="M78">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O78">
         <v>1.36</v>
@@ -9276,10 +9276,10 @@
         <v>2.1</v>
       </c>
       <c r="V78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X78">
         <v>1.88</v>
@@ -9332,13 +9332,13 @@
         <v>249</v>
       </c>
       <c r="F79">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G79">
         <v>4.5</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I79">
         <v>1.04</v>
@@ -9353,10 +9353,10 @@
         <v>4.5</v>
       </c>
       <c r="M79">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O79">
         <v>1.3</v>
@@ -9380,10 +9380,10 @@
         <v>3</v>
       </c>
       <c r="V79">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="W79">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X79">
         <v>2.16</v>
@@ -9439,10 +9439,10 @@
         <v>5.5</v>
       </c>
       <c r="G80">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H80">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="I80">
         <v>1.05</v>
@@ -9457,10 +9457,10 @@
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="N80">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="O80">
         <v>1.4</v>
@@ -9484,10 +9484,10 @@
         <v>1.14</v>
       </c>
       <c r="V80">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W80">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X80">
         <v>1.45</v>
@@ -9540,13 +9540,13 @@
         <v>251</v>
       </c>
       <c r="F81">
+        <v>3.1</v>
+      </c>
+      <c r="G81">
         <v>3.5</v>
       </c>
-      <c r="G81">
-        <v>3.2</v>
-      </c>
       <c r="H81">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="I81">
         <v>1.04</v>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="W81">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X81">
         <v>1.51</v>
@@ -9644,13 +9644,13 @@
         <v>252</v>
       </c>
       <c r="F82">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="G82">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H82">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I82">
         <v>1.09</v>
@@ -9665,10 +9665,10 @@
         <v>2.23</v>
       </c>
       <c r="M82">
-        <v>2.77</v>
+        <v>2.59</v>
       </c>
       <c r="N82">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O82">
         <v>1.62</v>
@@ -9692,10 +9692,10 @@
         <v>1.46</v>
       </c>
       <c r="V82">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="W82">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X82">
         <v>1.32</v>
@@ -9748,13 +9748,13 @@
         <v>253</v>
       </c>
       <c r="F83">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H83">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I83">
         <v>1.09</v>
@@ -9796,10 +9796,10 @@
         <v>1.71</v>
       </c>
       <c r="V83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="W83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X83">
         <v>1.83</v>
@@ -9852,13 +9852,13 @@
         <v>254</v>
       </c>
       <c r="F84">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="G84">
         <v>3.2</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I84">
         <v>1.1</v>
@@ -9873,10 +9873,10 @@
         <v>2.7</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="N84">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="O84">
         <v>1.53</v>
@@ -9900,10 +9900,10 @@
         <v>1.66</v>
       </c>
       <c r="V84">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="W84">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="X84">
         <v>1.01</v>
@@ -9956,13 +9956,13 @@
         <v>255</v>
       </c>
       <c r="F85">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H85">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I85">
         <v>1.06</v>
@@ -9977,10 +9977,10 @@
         <v>3.05</v>
       </c>
       <c r="M85">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="N85">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O85">
         <v>1.42</v>
@@ -10060,13 +10060,13 @@
         <v>256</v>
       </c>
       <c r="F86">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G86">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="H86">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I86">
         <v>1.04</v>
@@ -10164,7 +10164,7 @@
         <v>257</v>
       </c>
       <c r="F87">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G87">
         <v>3.25</v>
@@ -10185,10 +10185,10 @@
         <v>3.08</v>
       </c>
       <c r="M87">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="N87">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
         <v>1.44</v>
@@ -10268,13 +10268,13 @@
         <v>258</v>
       </c>
       <c r="F88">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H88">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10372,13 +10372,13 @@
         <v>259</v>
       </c>
       <c r="F89">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="G89">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H89">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="I89">
         <v>1.09</v>
@@ -10393,10 +10393,10 @@
         <v>2.7</v>
       </c>
       <c r="M89">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="N89">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="O89">
         <v>1.53</v>
@@ -10476,13 +10476,13 @@
         <v>260</v>
       </c>
       <c r="F90">
-        <v>3.3</v>
+        <v>2.49</v>
       </c>
       <c r="G90">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H90">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="I90">
         <v>1.05</v>
@@ -10497,7 +10497,7 @@
         <v>4.02</v>
       </c>
       <c r="M90">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="N90">
         <v>2.05</v>
@@ -10580,13 +10580,13 @@
         <v>261</v>
       </c>
       <c r="F91">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="G91">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H91">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="I91">
         <v>1.03</v>
@@ -10684,13 +10684,13 @@
         <v>262</v>
       </c>
       <c r="F92">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G92">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I92">
         <v>1.07</v>
@@ -10788,13 +10788,13 @@
         <v>263</v>
       </c>
       <c r="F93">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="G93">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I93">
         <v>1.05</v>
@@ -10809,10 +10809,10 @@
         <v>2.6</v>
       </c>
       <c r="M93">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="N93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
         <v>1.53</v>
@@ -10892,13 +10892,13 @@
         <v>264</v>
       </c>
       <c r="F94">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="H94">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I94">
         <v>1.02</v>
@@ -10913,10 +10913,10 @@
         <v>4.8</v>
       </c>
       <c r="M94">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="N94">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="O94">
         <v>1.25</v>
@@ -11100,13 +11100,13 @@
         <v>266</v>
       </c>
       <c r="F96">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G96">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H96">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I96">
         <v>1.09</v>
@@ -11204,13 +11204,13 @@
         <v>267</v>
       </c>
       <c r="F97">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G97">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="H97">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="N97">
         <v>1.7</v>
@@ -11311,10 +11311,10 @@
         <v>2.04</v>
       </c>
       <c r="G98">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="H98">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="I98">
         <v>1.07</v>
@@ -11329,10 +11329,10 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="O98">
         <v>1.44</v>
@@ -11412,13 +11412,13 @@
         <v>269</v>
       </c>
       <c r="F99">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G99">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
       <c r="H99">
-        <v>4.23</v>
+        <v>4.22</v>
       </c>
       <c r="I99">
         <v>1.07</v>
@@ -11433,10 +11433,10 @@
         <v>3</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N99">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O99">
         <v>1.42</v>
@@ -11620,13 +11620,13 @@
         <v>271</v>
       </c>
       <c r="F101">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="G101">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="H101">
-        <v>2.37</v>
+        <v>2.78</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -11641,10 +11641,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="N101">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         <v>272</v>
       </c>
       <c r="F102">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G102">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H102">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="I102">
         <v>1.05</v>
@@ -11745,10 +11745,10 @@
         <v>3.3</v>
       </c>
       <c r="M102">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="N102">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="O102">
         <v>1.4</v>
@@ -11828,13 +11828,13 @@
         <v>273</v>
       </c>
       <c r="F103">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="G103">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H103">
-        <v>3.93</v>
+        <v>5.61</v>
       </c>
       <c r="I103">
         <v>1.05</v>
@@ -11849,10 +11849,10 @@
         <v>3</v>
       </c>
       <c r="M103">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O103">
         <v>1.42</v>
